--- a/bigai_related/报销系统/交易成功订单.xlsx
+++ b/bigai_related/报销系统/交易成功订单.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -728,174 +728,176 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>固万基官方旗舰店</t>
+          <t>北京鑫旺合顺科技有限公司</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>304不锈钢十字沉头螺丝钉平头螺栓机丝电子小螺钉大全M2M3M4M5M6</t>
+          <t>工业铝型材40*40欧标铝合金型材2020鱼缸架子铝型材框架4040型材</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D17" t="n">
-        <v>291.8</v>
+        <v>789.88</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>北京鑫旺合顺科技有限公司</t>
+          <t>一卡宠物厨房</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>工业铝型材40*40欧标铝合金型材2020鱼缸架子铝型材框架4040型材</t>
+          <t>松鼠专用指甲剪套装打磨指甲剪指甲刀修剪指甲钳磨甲器小宠用品</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>789.88</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>一卡宠物厨房</t>
+          <t>鸿翊电子舵机工厂店</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>松鼠专用指甲剪套装打磨指甲剪指甲刀修剪指甲钳磨甲器小宠用品</t>
+          <t>飞特SM29-24MB无刷Modbus-RTU工业级12KG智能360度PLC伺服485舵机</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>12.8</v>
+        <v>450</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>鸿翊电子舵机工厂店</t>
+          <t>智嵌物联旗舰店</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>飞特SM29-24MB无刷Modbus-RTU工业级12KG智能360度PLC伺服485舵机</t>
+          <t>智嵌物联RS485/232/422转CANFD转换器CAN总线转串口模块MODBUS</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>450</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>智嵌物联旗舰店</t>
+          <t>崇浩科技</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>智嵌物联RS485/232/422转CANFD转换器CAN总线转串口模块MODBUS</t>
+          <t>stm32开发板 stm32工控板 双485 RS232 含CAN总线 IPS彩屏</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>144</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>崇浩科技</t>
+          <t>spes旗舰店</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>stm32开发板 stm32工控板 双485 RS232 含CAN总线 IPS彩屏</t>
+          <t>【宋佳同款】Spes诗裴丝干发喷雾免洗蓬松头发控油清爽蓬蓬高颅顶</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>162</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>spes旗舰店</t>
+          <t>高擎机电</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>【宋佳同款】Spes诗裴丝干发喷雾免洗蓬松头发控油清爽蓬蓬高颅顶</t>
+          <t>高擎机电HTM-4438小型无刷伺服行星关节模组 双编码器</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>53</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>高擎机电</t>
+          <t>固万基官方旗舰店</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>高擎机电HTM-4438小型无刷伺服行星关节模组 双编码器</t>
+          <t>304不锈钢凹端紧定螺丝 内六角无头螺钉机米顶丝M2M3M4M5M6M8M10</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>1798</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>固万基官方旗舰店</t>
+          <t>达妙智能控制企业店</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>304不锈钢凹端紧定螺丝 内六角无头螺钉机米顶丝M2M3M4M5M6M8M10</t>
+          <t>H723 DM-MC02达妙STM32开发板机器人轮足控制板机械臂板载BMI088</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>1</v>
       </c>
-      <c r="D25" t="n">
-        <v>12</v>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>￥3444.00</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>固万基官方旗舰店</t>
+          <t>鸿翊电子舵机工厂店</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>304不锈钢十字沉头螺丝钉平头螺栓机丝电子小螺钉大全M2M3M4M5M6</t>
+          <t>飞特SM29-24MB无刷Modbus-RTU工业级12KG智能360度PLC伺服485舵机</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -903,59 +905,59 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>￥291.80</t>
+          <t>￥450.00</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>北京鑫旺合顺科技有限公司</t>
+          <t>meelyhome</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>工业铝型材40*40欧标铝合金型材2020鱼缸架子铝型材框架4040型材</t>
+          <t>meelyhome自动闭合眼镜收纳包女便携太阳镜墨镜收纳包高级眼镜袋</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>￥789.88</t>
+          <t>￥22.30</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>一卡宠物厨房</t>
+          <t>muh旗舰店</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>松鼠专用指甲剪套装打磨指甲剪指甲刀修剪指甲钳磨甲器小宠用品</t>
+          <t>德国进口平面推力滚针轴承内径4/5/6/8/10/12/15/17/20/25/30/35</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>￥12.80</t>
+          <t>￥17.50</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>鸿翊电子舵机工厂店</t>
+          <t>达妙科技企业店</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>飞特SM29-24MB无刷Modbus-RTU工业级12KG智能360度PLC伺服485舵机</t>
+          <t>FDCAN分析仪 USB转CAN 支持5Mbps 调试工具达妙隔离CAN模块 can盒</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -963,59 +965,59 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>￥450.00</t>
+          <t>￥102.00</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>智嵌物联旗舰店</t>
+          <t>固万基官方旗舰店</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>智嵌物联RS485/232/422转CANFD转换器CAN总线转串口模块MODBUS</t>
+          <t>固万基土字注塑热熔铜螺母M2M3通孔滚花螺帽土八字预埋铜嵌铜花母</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>￥144.00</t>
+          <t>￥40.00</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>崇浩科技</t>
+          <t>固万基官方旗舰店</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>stm32开发板 stm32工控板 双485 RS232 含CAN总线 IPS彩屏</t>
+          <t>304不锈钢杯头内六角螺丝钉圆柱头螺钉10mm加长螺栓M2M3M4M5M6M8</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>￥162.00</t>
+          <t>￥41.30</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>spes旗舰店</t>
+          <t>K家 3D配件工厂店</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>【宋佳同款】Spes诗裴丝干发喷雾免洗蓬松头发控油清爽蓬蓬高颅顶</t>
+          <t>DIY拓竹刮刀A1/mini/P1/X1 热床刀片/装好刮刀SK5钢3D打印机配件</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1023,39 +1025,39 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>￥53.00</t>
+          <t>￥8.70</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>高擎机电</t>
+          <t>何物旗舰店</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>高擎机电HTM-4438小型无刷伺服行星关节模组 双编码器</t>
+          <t>2025新款除湿机家用吸湿室内静音抽湿回南天神器空气净化器一体机</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>￥1798.00</t>
+          <t>￥209.10</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>达妙智能控制企业店</t>
+          <t>天猫超市</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>H723 DM-MC02达妙STM32开发板机器人轮足控制板机械臂板载BMI088</t>
+          <t>乌苏啤酒红乌苏330ml*12罐小听装易拉罐装啤酒</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1063,19 +1065,19 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>￥3444.00</t>
+          <t>￥37.75</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>固万基官方旗舰店</t>
+          <t>杰品餐饮具</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>304不锈钢凹端紧定螺丝 内六角无头螺钉机米顶丝M2M3M4M5M6M8M10</t>
+          <t>家用大号玻璃啤酒杯500ml加厚精酿啤酒专用杯网红扎啤杯商用酒杯</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1083,7 +1085,147 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>￥12.00</t>
+          <t>￥8.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>国货严选旗舰</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>卫龙大刀肉独立小包香辣油润大刀辣条亲嘴烧童年怀旧解馋休闲零食</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>￥12.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>滇二娃旗舰店</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>滇二娃农科院云南特产麻辣土豆片贵州小吃薯片休闲小零食网红爆款</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>￥14.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>甄磨坊旗舰店</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>甄磨坊黑芝麻丸球核桃仁桑葚软糕小吃孕妇休闲零食正品官方旗舰店</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>￥16.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>梅吧啦生活馆</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>透明收纳箱家用塑料收纳盒玩具衣服整理箱大容量加厚后备储物箱子</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>￥86.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>倍力高五金旗舰店</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>90度伞齿轮 等径锥齿轮 1模/1.5模/2模/2.5模/3模 转向齿轮 45#钢</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>4</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>￥47.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>高擎机电</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>高擎机电HTM-5047小型无刷伺服行星关节模组  双编码器</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>￥1878.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>拓竹官方旗舰店</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>【优惠价】拓竹TPU for AMS 3D打印耗材 适配AMS多色高速打印 柔韧坚固抗冲击减少拉丝 RFID智能参数</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>￥419.65</t>
         </is>
       </c>
     </row>
